--- a/biology/Médecine/Pierre_Grosjean_(médecin)/Pierre_Grosjean_(médecin).xlsx
+++ b/biology/Médecine/Pierre_Grosjean_(médecin)/Pierre_Grosjean_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierre_Grosjean_(m%C3%A9decin)</t>
+          <t>Pierre_Grosjean_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pierre Grosjean, né le 24 juin 1952 à Remiremont[1] dans les Vosges et mort assassiné le 26 mars 1983 au Nicaragua, est un médecin français. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pierre Grosjean, né le 24 juin 1952 à Remiremont dans les Vosges et mort assassiné le 26 mars 1983 au Nicaragua, est un médecin français. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierre_Grosjean_(m%C3%A9decin)</t>
+          <t>Pierre_Grosjean_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les parents de Pierre Grosjean tenaient une quincaillerie à Vagney et avaient cinq enfants. Il avait fait ses études de médecine à l'université Louis Pasteur de Strasbourg et les a terminées en janvier 1982 en soutenant sa thèse de doctorat Conditions générales de santé dans les favelas de Rio de Janeiro ville où il a séjourné au tout début des années 1980 et où il s'est marié avec une Brésilienne.
 Au mois d'août 1982, Pierre Grosjean part en mission au Nicaragua dans le cadre d’accords entre l'hôpital Bichat-Claude-Bernard (Paris), le Comité de coopération scientifique et technique France-Nicaragua, l'Université Paris XI Orsay  et la faculté de médecine de León (Nicaragua) et de contrats de coopération entre les gouvernements français et nicaraguayen.
